--- a/devis/CCS Changeux.xlsx
+++ b/devis/CCS Changeux.xlsx
@@ -1,41 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugpht-my.sharepoint.com/personal/soraya_beaubrun_ugp_ht/Documents/Desktop/new_datageo/devis/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6327917E-6A2D-4850-9549-8B62BCAE872B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20052" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="CCS Changeux" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
   <si>
     <t>#</t>
   </si>
@@ -258,9 +239,6 @@
   </si>
   <si>
     <t>ARMENAGEMENT DU CENTRE ,CONSTRUCTION INCINERATEUR ET DEPOT STOCKAGE.</t>
-  </si>
-  <si>
-    <t>Crépis et Enduis mur intérieur et extérieur mortier dose a 350kg/m3</t>
   </si>
   <si>
     <t>Crépis et enduis Plafond</t>
@@ -456,9 +434,6 @@
     </r>
   </si>
   <si>
-    <t>2WC, 2 lave main  ,2 douche complet+1 château d’eau de 400gallons</t>
-  </si>
-  <si>
     <t>Peinture Sherwin Williams ou peinture vlou pour les mur et plafond y compris toutes sujestions,</t>
   </si>
   <si>
@@ -643,7 +618,893 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Porte en vitre et alluminum à deux battants (1.60mX2.10m)completes avec toute la quincaillerie et serrurerie, fournitures telles que le scellement dans la maçonnerie et securiser par des fers forges de mise en œuvre et  sujétion</t>
+      <t>Fenetres type A, de dimension  0.45 m x 0.45 m en lame de vitre  + grillage en fer forge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(voir cahier de decharge et plan de details)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fenetres type B1, de dimension  1.25 m x 1.20 m en lame d’aluminium et tuile + grillage en fer forge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(voir cahier de decharge et plan de details)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fenetres type C2, de dimension  0.60 m x 0.70 m en lame d’aluminium et tuile + grillage en fer forge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(voir cahier de decharge et plan de details)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fenetres type B2, de dimension  0.80 m x 0.80 m en lame d’aluminium et tuile + grillage en fer forge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(voir cahier de decharge et plan de details)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fenetres type C1, de dimension  2.80 m x 1.20 m en lame d’aluminium et tuile + grillage en fer forge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(voir cahier de decharge et plan de details)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Construction Rampes d'Acces + espaces de circulation </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(voir Specification techniques dans le cahier de charge et plans de details).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Mains courantes / Garde Corps</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (voir Specification techniques dans le cahier de charge et plans de details).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Construction perrons exterieurs</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (voir Specification techniques dans le cahier de charge et plans de details).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Portes en bois du pays (cèdre, acajou chaine) y  compris cadre en métal, quincaillerie et serrurerie, fournitures telles que le scellement dans la maçonnerie de mise en œuvre et  sujétion (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>voir cahier de decharge et plan de details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fenetres type A, de dimension  0.90m x 1.20 m en lame de vitre  + grillage en fer forge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(voir cahier de decharge et plan de details)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fenetres type B1, de dimension  1.80m x 1.20 m en lame d’aluminium et tuile + grillage en fer forge</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+(voir cahier de decharge et plan de details)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tonelle d'attente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Ces prix rémunèrent au metre carre (m2) pour la fabrication de la structure, l'achat, le transport et la mise en œuvre de la construction de la Tonnelle d’accueil pour le Centre de Sante, toiture en structure métallique y compris toutes sujétions de mis en œuvre. (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>voir Specification techniques dans le cahier de charge et plans de details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Buanderie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Ces prix rémunèrent au metre carre (m2) pour la construction complete de la buanderie avec l'amenagement des espace de lavage complet, l'achat, le transport et la mise en œuvre de la construction complete suvant les plans d'execution de la buanderie avec les accesoires hydrauliques et electriques complets pour le Centre de Sante y compris toutes sujétions de mis en œuvre. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(voir Specification techniques dans le cahier de charge et plans de details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Mobilisation-Replis / Organisation de Chantier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> :Ce prix rémunère au forfait pour la mobilisation, la démolition du centre existant et la cloture separateur du centre, l'implantation de toute la construction du Centre de Santé changieux , ainsi que les déplacements (amené et repli) de matériels, d’équipements et de personnels nécessaires à l’installation du chantier; tous les travaux de déboisement et de dessouchage nécessaires, le transport des débris à un lieu d’entreposage choisi conjointement avec la Municipalité et le Responsable du PGSE, les mesures de santé et sécurité sur le chantier sont indispensables (équipements de travail pour les ouvriers, gardienage, cloture provisoire et autres....), construction d’un bureau provisoire en bois y compris chaise et un mini table, nettoyage constamment du site et toutes sujétions.                                                                                                                                                                                                                                                   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Implantation par m² pour les différentes parties du Centre de Santé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">:Ce prix rémunère au mètre carré (m2) pour l'établissement de l'implantation de toute la construction du Centre de Santé  , les niveaux nécessaires pour les travaux d'excavation des fondations des ouvrages se trouvant sur le site du Centre de Santé  ,Il rémunère également la fourniture des matériels et équipements topographique pour la mise en œuvre de piquets, de points de référence ainsi que tous autres travaux nécessaire a l'équipe topographique pour l'exécution complète de l'implantation du Centre de Santé et toutes sujétions. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Remblais Compacter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Ce prix rémunère pour les deplacements (amene et repli) de materiel, d'equipements et de personnel necessaire pour les travaux de nivellage et de compactage pour </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>la surface a construire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. Il inclut toutes les opérations d'extraction, de transport, de déchargement et de compactage. Ce prix remunere un remblai tout venant (ou équivalent) compacter a partir du foncage jusqu'a la haueur des socles et des mur de fondation suivant la hauteur (120 cm en moyenne) compacte a chaque 30 cm, avant le béton de propreté. Il s'etend au mètre carre mesuré sur place sans correction et toutes sujétions comprises.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Béton armé : Dalle de Parquet + Galérie de 0.10 m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>d'épaisseur Flotté avant la pose des carrelages pour le centre de sante  dosé @375 kg/m³ (Ferraillage 0.20m X 0.20m @ armature: fer ½ grade 60) et toutes sujétions de mise en œuvre</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (voir cahier de charger)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pose Bloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Ces prix rémunèrent au metre carré (m2) pour l'achat, le transport et la mise en œuvre de la pose des blocs pour  le centre de sante comme defini ci-apres. Il inclut tous les prix de fourniture, de transport des éléments constitutifs pour la pose des blocs #15 et d’acier d’armature sont également compris la fourniture des matériaux ainsi que toutes autres dispositifs de mise en œuvre et tous les essais éventuels. La Maçonnerie de blocs (vibrés) en élévation hourdée (0.15x0.20x0.40) ferraillé en fer de 3/8'' depuis la dalle de parquet, au mortier de 300 kg de ciment CPA 250/315 par m³ de sable, remplie de béton dans les blocs BH 350, + Centre de Santé + toutes les espaces a construire et sujétions comprises.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (voir plans types).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Béton armé : semelles 0.80 m x 0.80m x 0.20 m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>dosé @375 kg/m³ (armature: fer 5/8 grade 60 dans les deux sens/ espacement 10 cm) et toutes sujétions (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>voir cahier de charger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Béton armé : Poutres libages </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>dosé @375 kg/m³ y compris coffrage, décoffrage avec des armatures (4 fer ½ et 4 fer 5/8 longitudinale avec cadres 3/8 Grade 60 espace a 15 cm) et toutes sujétions de mise en œuvre</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. (voir cahier de charger)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Béton armé : Socles 0.5x0.5x1.5 m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>@375 kg/m³ (armature 5/8 grade 60 et cadre 3/8 espacement 12 cm y compris toutes sujétions de mis en oeuvre (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>voir cahier de charger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Béton Armé: chainage supérieur pour le centre de sante. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>dosé @ 375 kg/m³ (Barres armature 5/8 et  ½ grade 60 longitudinales avec des étriers en 3/8) espacement 12cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (voir cahier de charger)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Béton Armé: Dalle pleine du centre de sante.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>dosé @ 375 kg/m³ (cadrillage d'armature ½ grade 60 dans les deux sens) espacement 12cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (voir cahier de charger) y compris coffrage et decoffrage de la dalle.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Céramique Antidérapante </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Les carrelages en carreau de céramique (Grès) posés et hourdés au mortier  dose à 350 kg/ m3 de sable  y compris pose, coulis de ciment toutes coupes, entailles, raccord de carreaux, nettoyage, enlèvement de déchets et gravier du travail, y compris toutes fournitures (pour Parquet). L’usage du ciment colle est recommandé pour la pose de carrelage et toutes sujétions de mise en oeuvre.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Céramique  mural pour les douche et laboratoire y compris toutes sujestion de pose (Grès)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Climatisation Bureau medecin en chef et administration+Laboratoire d'analyse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Ce prix comprend la mise en œuvre, l'achat, le transport, l'installation de l'AIR CONDITIONNER SPLIT 18,000 BTU 110V - WIX-1220. L.1 - INVERTER WESTPOINT et de tous les matériaux et les moyens nécessaires pour l’exécution des travaux, la mobilisation de tous les matériels de fonctionnement destiné au chantier,  le repli des matériels après exécution des travaux ainsi que le nettoyage complet de l'espace de travail et toutes sujétions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cout Total 1 du centre Changieux</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Béton Armé:  colonnes pour  la residence personnelle. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">dosé @375 kg/m³ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(4fer 5/8 et 4fer 1/2 avec étrier 3/8 grade 60), y compris coffrage, décoffrage, armatures et toutes sujétions de mise en œuvre.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>voir cahier de charger</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Béton Armé: chainage supérieur pour la residence. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>dosé @ 375 kg/m³ (Barres armature 5/8 et  1/2 grade 60 longitudinales avec des étriers en 3/8) espacement 12cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (voir cahier de charger)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Béton Armé: chainage intermediaire  pour la residence. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>dosé @ 375 kg/m³ (Barres armature  ½ grade 60 longitudinales avec des étriers en 3/8) espacement 12cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (voir cahier de charger)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pose Bloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>:Ces prix rémunèrent au metre carré (m2) pour l'achat, le transport et la mise en œuvre de la pose des blocs pour  la residence comme defini ci-apres. Il inclut tous les prix de fourniture, de transport des éléments constitutifs pour la pose des blocs #15 et d’acier d’armature sont également compris la fourniture des matériaux ainsi que toutes autres dispositifs de mise en œuvre et tous les essais éventuels. La Maçonnerie de blocs (vibrés) en élévation hourdée (0.15x0.20x0.40) ferraillé en fer de 3/8'' depuis la dalle , au mortier de 300 kg de ciment CPA 250/315 par m³ de sable, remplie de béton dans les blocs BH 350,  toutes les espaces a construire et sujétions comprises.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (voir plans types).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Béton Armé: Dalle pleine de la residence .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>dosé @ 375 kg/m³ (cadrillage d'armature ½ grade 60 dans les deux sens) espacement 12cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (voir cahier de charger) y compris coffrage et decoffrage de la dalle.</t>
+    </r>
+  </si>
+  <si>
+    <t>Porte métallique pour l'entrée principale de la residence</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cloture en maconnerie de blocs complete du Centre de Sante changieux:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Ces prix rémunèrent au metre lineaire (ml) pour l'achat, le transport et la mise en œuvre de la pose des blocs comme ci-apres. Il inclut tous les prix de fourniture, de transport des éléments constitutifs pour la pose des blocs #15  et d’acier d’armature sont également compris la fourniture des matériaux ainsi que toutes autres dispositifs de mise en œuvre et tous les essais éventuels. La Maçonnerie de blocs (vibrés) en élévation hourdée (0.15x0.20x0.40) ferraillé en fer de 3/8'' depuis le chainage inferieur du mur de fondation, au mortier de 300 kg de ciment CPA 250/315 par m³ de sable, remplie de béton dans les blocs BH 350 avec 2 barrières (5mx2.5m et une de 1m) equipe de barbele razoir au-dessus et sujétions comprises. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(voir specifications techniques dans les plans et le cahier de charge)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Incinerateur complet du Centre de Sante Changeux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Ces prix rémunèrent au metre M2 pour l'achat, le transport et la mise en œuvre de la construction de l'Incinerateur et de l'entrepot de stockage des dechets avec la fosse a cendre. (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>voir Specification techniques dans le cahier de charge et plans de details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>RESIDENCE PERSONNELLE CHANGEUX</t>
+  </si>
+  <si>
+    <t>RECONSTRUCTION DU CENTRE DE SANTE CHANGEUX</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Mur de Soutenement en maconnerie de roche riviere:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Ces prix rémunèrent au metre cube (m3) pour l'achat, le transport et la mise en œuvre du mur en maconnerie de moellon du mur de soutenement de la partie arriere et celui de la facade principal  du centre de sante ,comme defini ci-apres. Il inclut tous les prix de fourniture, de transport des éléments constitutifs pour le pied d'encrage du mur de soutenement de 1.00 m de largeur et d'une hauteur de 0,50 m y compris la fourniture des matériaux ainsi que toutes autres dispositifs de mise en œuvre et tous les essais éventuels. Le mur de soutenmement en maçonnerie de moellon en élévation de dimension de la base 1.20 m pour la grande base sur une hauteur de 2,50 m et 0,40 m pour la petite base au sommet avec un chainage beton arme de 0,20 x 0,40 x 42 ml et sujétions comprises. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(voir specifications techniques dans les plans et le cahier de charge)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Armenagement cour+ 50ml (1.20x1.20m)aler pietonne  pour permettre une  circulation adequatre au niveau de la cour,inclus bac a fleur , plante multicolor et jardin medicinal  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(voir Specification techniques dans le cahier de charge et plans de details).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Porte en vitre transluside de l'exterieur à deux battants (1.60mX2.10m)completes avec toute la quincaillerie et serrurerie, fournitures telles que le scellement dans la maçonnerie et securiser par des fers forges  et  sujétion de mise en oeuvre</t>
     </r>
     <r>
       <rPr>
@@ -659,11 +1520,51 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fenetres type A, de dimension  0.45 m x 0.45 m en lame de vitre  + grillage en fer forge</t>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fournitures d'appareils hydrauliques et sanitaires:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ce prix rémunère au forfait pour l'achat et la pose, l'installation des fournitures et equipements pour les blocs sanitaires, Water Closet complet (4 WC),6 Lavabo,  sur piedestal,  accessoires complets pour les douches + un chateau d'eau de 500 gallons  y compris barres d'appui, équipements et materiels de douche et toutes sujétions. (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>voir cahier de charges</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fenetres type C2, de dimension  1.05 m x 1.20 m en lame d’aluminium et tuile + grillage en fer forge</t>
     </r>
     <r>
       <rPr>
@@ -677,404 +1578,25 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fenetres type B1, de dimension  1.25 m x 1.20 m en lame d’aluminium et tuile + grillage en fer forge</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(voir cahier de decharge et plan de details)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fenetres type C2, de dimension  0.60 m x 0.70 m en lame d’aluminium et tuile + grillage en fer forge</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(voir cahier de decharge et plan de details)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fenetres type B2, de dimension  0.80 m x 0.80 m en lame d’aluminium et tuile + grillage en fer forge</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(voir cahier de decharge et plan de details)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fenetres type C1, de dimension  2.80 m x 1.20 m en lame d’aluminium et tuile + grillage en fer forge</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(voir cahier de decharge et plan de details)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Construction Rampes d'Acces + espaces de circulation </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(voir Specification techniques dans le cahier de charge et plans de details).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Mains courantes / Garde Corps</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (voir Specification techniques dans le cahier de charge et plans de details).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Construction perrons exterieurs</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (voir Specification techniques dans le cahier de charge et plans de details).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Portes en bois du pays (cèdre, acajou chaine) y  compris cadre en métal, quincaillerie et serrurerie, fournitures telles que le scellement dans la maçonnerie de mise en œuvre et  sujétion (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>voir cahier de decharge et plan de details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fenetres type A, de dimension  0.90m x 1.20 m en lame de vitre  + grillage en fer forge</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(voir cahier de decharge et plan de details)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fenetres type B1, de dimension  1.80m x 1.20 m en lame d’aluminium et tuile + grillage en fer forge</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(voir cahier de decharge et plan de details)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Tonelle d'attente</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Ces prix rémunèrent au metre carre (m2) pour la fabrication de la structure, l'achat, le transport et la mise en œuvre de la construction de la Tonnelle d’accueil pour le Centre de Sante, toiture en structure métallique y compris toutes sujétions de mis en œuvre. (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>voir Specification techniques dans le cahier de charge et plans de details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Buanderie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Ces prix rémunèrent au metre carre (m2) pour la construction complete de la buanderie avec l'amenagement des espace de lavage complet, l'achat, le transport et la mise en œuvre de la construction complete suvant les plans d'execution de la buanderie avec les accesoires hydrauliques et electriques complets pour le Centre de Sante y compris toutes sujétions de mis en œuvre. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(voir Specification techniques dans le cahier de charge et plans de details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Mobilisation-Replis / Organisation de Chantier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> :Ce prix rémunère au forfait pour la mobilisation, la démolition du centre existant et la cloture separateur du centre, l'implantation de toute la construction du Centre de Santé changieux , ainsi que les déplacements (amené et repli) de matériels, d’équipements et de personnels nécessaires à l’installation du chantier; tous les travaux de déboisement et de dessouchage nécessaires, le transport des débris à un lieu d’entreposage choisi conjointement avec la Municipalité et le Responsable du PGSE, les mesures de santé et sécurité sur le chantier sont indispensables (équipements de travail pour les ouvriers, gardienage, cloture provisoire et autres....), construction d’un bureau provisoire en bois y compris chaise et un mini table, nettoyage constamment du site et toutes sujétions.                                                                                                                                                                                                                                                   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Implantation par m² pour les différentes parties du Centre de Santé</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">:Ce prix rémunère au mètre carré (m2) pour l'établissement de l'implantation de toute la construction du Centre de Santé  , les niveaux nécessaires pour les travaux d'excavation des fondations des ouvrages se trouvant sur le site du Centre de Santé  ,Il rémunère également la fourniture des matériels et équipements topographique pour la mise en œuvre de piquets, de points de référence ainsi que tous autres travaux nécessaire a l'équipe topographique pour l'exécution complète de l'implantation du Centre de Santé et toutes sujétions. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Remblais Compacter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: Ce prix rémunère pour les deplacements (amene et repli) de materiel, d'equipements et de personnel necessaire pour les travaux de nivellage et de compactage pour </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>la surface a construire</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>. Il inclut toutes les opérations d'extraction, de transport, de déchargement et de compactage. Ce prix remunere un remblai tout venant (ou équivalent) compacter a partir du foncage jusqu'a la haueur des socles et des mur de fondation suivant la hauteur (120 cm en moyenne) compacte a chaque 30 cm, avant le béton de propreté. Il s'etend au mètre carre mesuré sur place sans correction et toutes sujétions comprises.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Béton armé : Dalle de Parquet + Galérie de 0.10 m </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>d'épaisseur Flotté avant la pose des carrelages pour le centre de sante  dosé @375 kg/m³ (Ferraillage 0.20m X 0.20m @ armature: fer ½ grade 60) et toutes sujétions de mise en œuvre</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (voir cahier de charger)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Pose Bloc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: Ces prix rémunèrent au metre carré (m2) pour l'achat, le transport et la mise en œuvre de la pose des blocs pour  le centre de sante comme defini ci-apres. Il inclut tous les prix de fourniture, de transport des éléments constitutifs pour la pose des blocs #15 et d’acier d’armature sont également compris la fourniture des matériaux ainsi que toutes autres dispositifs de mise en œuvre et tous les essais éventuels. La Maçonnerie de blocs (vibrés) en élévation hourdée (0.15x0.20x0.40) ferraillé en fer de 3/8'' depuis la dalle de parquet, au mortier de 300 kg de ciment CPA 250/315 par m³ de sable, remplie de béton dans les blocs BH 350, + Centre de Santé + toutes les espaces a construire et sujétions comprises.</t>
+    <t>3WC, 3 lave main  ,3 douche complet+1 château d’eau de 400gallons</t>
+  </si>
+  <si>
+    <t>Crépis et Enduis mur intérieur et extérieur y compris corniche sous plafon en 3 lignes  mortier dose a 350kg/m3</t>
+  </si>
+  <si>
+    <t>Crepissage et enduisage murs + Plafonds et mur de soubassement extérieures( crepis violine dans la façade principal du Centre de sante )</t>
+  </si>
+  <si>
+    <r>
+      <t>Toiture en grillage fer forge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> :Ces prix rémunèrent pour l'achat, le transport et la mise en œuvre de la Toiture en profilee 2''x1''1/2 pour le quadrillage et recouvert de plexiglass 1/2 transparente pour la facade pricipale comme defini ci-apres, Toutes les espaces a construire et sujétions comprises.</t>
     </r>
     <r>
       <rPr>
@@ -1088,337 +1610,15 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Béton armé : semelles 0.80 m x 0.80m x 0.20 m </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>dosé @375 kg/m³ (armature: fer 5/8 grade 60 dans les deux sens/ espacement 10 cm) et toutes sujétions (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>voir cahier de charger</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Béton armé : Poutres libages </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>dosé @375 kg/m³ y compris coffrage, décoffrage avec des armatures (4 fer ½ et 4 fer 5/8 longitudinale avec cadres 3/8 Grade 60 espace a 15 cm) et toutes sujétions de mise en œuvre</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>. (voir cahier de charger)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Béton armé : Socles 0.5x0.5x1.5 m </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>@375 kg/m³ (armature 5/8 grade 60 et cadre 3/8 espacement 12 cm y compris toutes sujétions de mis en oeuvre (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>voir cahier de charger</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Béton Armé: chainage supérieur pour le centre de sante. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>dosé @ 375 kg/m³ (Barres armature 5/8 et  ½ grade 60 longitudinales avec des étriers en 3/8) espacement 12cm</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (voir cahier de charger)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Béton Armé: Dalle pleine du centre de sante.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>dosé @ 375 kg/m³ (cadrillage d'armature ½ grade 60 dans les deux sens) espacement 12cm</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (voir cahier de charger) y compris coffrage et decoffrage de la dalle.</t>
-    </r>
-  </si>
-  <si>
-    <t>Crepissage et enduisage murs + Plafonds et mur de soubassement (intérieures/extérieures Centre de sante )</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Céramique Antidérapante </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Les carrelages en carreau de céramique (Grès) posés et hourdés au mortier  dose à 350 kg/ m3 de sable  y compris pose, coulis de ciment toutes coupes, entailles, raccord de carreaux, nettoyage, enlèvement de déchets et gravier du travail, y compris toutes fournitures (pour Parquet). L’usage du ciment colle est recommandé pour la pose de carrelage et toutes sujétions de mise en oeuvre.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Céramique  mural pour les douche et laboratoire y compris toutes sujestion de pose (Grès)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Fournitures d'appareils hydrauliques et sanitaires:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ce prix rémunère au forfait pour l'achat et la pose, l'installation des fournitures et equipements pour les blocs sanitaires, Water Closet complet (6 WC),9 Lavabo,  sur piedestal,  accessoires complets pour les douches + un chateau d'eau de 500 gallons  y compris barres d'appui, équipements et materiels de douche et toutes sujétions. (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>voir cahier de charges</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Climatisation Bureau medecin en chef et administration+Laboratoire d'analyse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Ce prix comprend la mise en œuvre, l'achat, le transport, l'installation de l'AIR CONDITIONNER SPLIT 18,000 BTU 110V - WIX-1220. L.1 - INVERTER WESTPOINT et de tous les matériaux et les moyens nécessaires pour l’exécution des travaux, la mobilisation de tous les matériels de fonctionnement destiné au chantier,  le repli des matériels après exécution des travaux ainsi que le nettoyage complet de l'espace de travail et toutes sujétions.</t>
-    </r>
-  </si>
-  <si>
-    <t>Cout Total 1 du centre Changieux</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Béton Armé:  colonnes pour  la residence personnelle. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">dosé @375 kg/m³ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(4fer 5/8 et 4fer 1/2 avec étrier 3/8 grade 60), y compris coffrage, décoffrage, armatures et toutes sujétions de mise en œuvre.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>voir cahier de charger</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Béton Armé: chainage supérieur pour la residence. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>dosé @ 375 kg/m³ (Barres armature 5/8 et  1/2 grade 60 longitudinales avec des étriers en 3/8) espacement 12cm</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (voir cahier de charger)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Béton Armé: chainage intermediaire  pour la residence. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>dosé @ 375 kg/m³ (Barres armature  ½ grade 60 longitudinales avec des étriers en 3/8) espacement 12cm</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (voir cahier de charger)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Pose Bloc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>:Ces prix rémunèrent au metre carré (m2) pour l'achat, le transport et la mise en œuvre de la pose des blocs pour  la residence comme defini ci-apres. Il inclut tous les prix de fourniture, de transport des éléments constitutifs pour la pose des blocs #15 et d’acier d’armature sont également compris la fourniture des matériaux ainsi que toutes autres dispositifs de mise en œuvre et tous les essais éventuels. La Maçonnerie de blocs (vibrés) en élévation hourdée (0.15x0.20x0.40) ferraillé en fer de 3/8'' depuis la dalle , au mortier de 300 kg de ciment CPA 250/315 par m³ de sable, remplie de béton dans les blocs BH 350,  toutes les espaces a construire et sujétions comprises.</t>
+      <t>Bordure Dalle en Fer forge:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ces prix rémunèrent pour l'achat, le transport et la mise en œuvvre des  profilee 1''1/2 pour le quadrillage du bordure de la dalle comme defini ci-apres, Toutes les espaces a construire et sujétions comprises.</t>
     </r>
     <r>
       <rPr>
@@ -1428,172 +1628,17 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> (voir plans types).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Béton Armé: Dalle pleine de la residence .</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>dosé @ 375 kg/m³ (cadrillage d'armature ½ grade 60 dans les deux sens) espacement 12cm</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (voir cahier de charger) y compris coffrage et decoffrage de la dalle.</t>
-    </r>
-  </si>
-  <si>
-    <t>Porte métallique pour l'entrée principale de la residence</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cloture en maconnerie de blocs complete du Centre de Sante changieux:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Ces prix rémunèrent au metre lineaire (ml) pour l'achat, le transport et la mise en œuvre de la pose des blocs comme ci-apres. Il inclut tous les prix de fourniture, de transport des éléments constitutifs pour la pose des blocs #15  et d’acier d’armature sont également compris la fourniture des matériaux ainsi que toutes autres dispositifs de mise en œuvre et tous les essais éventuels. La Maçonnerie de blocs (vibrés) en élévation hourdée (0.15x0.20x0.40) ferraillé en fer de 3/8'' depuis le chainage inferieur du mur de fondation, au mortier de 300 kg de ciment CPA 250/315 par m³ de sable, remplie de béton dans les blocs BH 350 avec 2 barrières (5mx2.5m et une de 1m) equipe de barbele razoir au-dessus et sujétions comprises. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(voir specifications techniques dans les plans et le cahier de charge)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Incinerateur complet du Centre de Sante Changeux</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Ces prix rémunèrent au metre M2 pour l'achat, le transport et la mise en œuvre de la construction de l'Incinerateur et de l'entrepot de stockage des dechets avec la fosse a cendre. (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>voir Specification techniques dans le cahier de charge et plans de details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <t>RESIDENCE PERSONNELLE CHANGEUX</t>
-  </si>
-  <si>
-    <t>RECONSTRUCTION DU CENTRE DE SANTE CHANGEUX</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Mur de Soutenement en maconnerie de roche riviere:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Ces prix rémunèrent au metre cube (m3) pour l'achat, le transport et la mise en œuvre du mur en maconnerie de moellon du mur de soutenement de la partie arriere et celui de la facade principal  du centre de sante ,comme defini ci-apres. Il inclut tous les prix de fourniture, de transport des éléments constitutifs pour le pied d'encrage du mur de soutenement de 1.00 m de largeur et d'une hauteur de 0,50 m y compris la fourniture des matériaux ainsi que toutes autres dispositifs de mise en œuvre et tous les essais éventuels. Le mur de soutenmement en maçonnerie de moellon en élévation de dimension de la base 1.20 m pour la grande base sur une hauteur de 2,50 m et 0,40 m pour la petite base au sommet avec un chainage beton arme de 0,20 x 0,40 x 42 ml et sujétions comprises. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(voir specifications techniques dans les plans et le cahier de charge)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Armenagement cour+ 50ml (1.20x1.20m)aler pietonne  pour permettre une  circulation adequatre au niveau de la cour,inclus bac a fleur , plante multicolor et jardin medicinal  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(voir Specification techniques dans le cahier de charge et plans de details).</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1693,6 +1738,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1730,7 +1783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1792,8 +1845,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1812,6 +1865,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1819,21 +1879,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1871,7 +1923,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1905,7 +1957,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1940,10 +1991,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2116,34 +2166,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72:F79"/>
+      <selection activeCell="E75" sqref="E75:F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="68.109375" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="66.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="33.75" customHeight="1">
       <c r="A1" s="9"/>
       <c r="B1" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="36" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2163,12 +2213,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="189.75" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -2179,10 +2229,10 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="84" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -2193,39 +2243,39 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="147" customHeight="1">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>288.13</v>
+        <v>263.14999999999998</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="141.75" customHeight="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2">
-        <v>129.1</v>
+        <v>103.24</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2236,33 +2286,33 @@
         <v>7</v>
       </c>
       <c r="D7" s="2">
-        <v>7.69</v>
+        <v>6.97</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:6" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="147" customHeight="1">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2">
-        <v>172.88</v>
+        <v>157.88999999999999</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="54" customHeight="1">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -2273,28 +2323,28 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
     </row>
-    <row r="10" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="63" customHeight="1">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>15.58</v>
+        <v>13.65</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="49.5" customHeight="1">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
@@ -2305,7 +2355,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="52.5" customHeight="1">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2316,28 +2366,28 @@
         <v>20</v>
       </c>
       <c r="D12" s="2">
-        <v>11.69</v>
+        <v>10.24</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="69" customHeight="1">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="2">
-        <v>23.05</v>
+        <v>21.05</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="127.5" customHeight="1">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2348,33 +2398,33 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>98.18</v>
+        <v>85.89</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" ht="159" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="180" customHeight="1">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="2">
-        <v>298.63</v>
+        <v>241.64</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="52.5" customHeight="1">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>20</v>
@@ -2385,28 +2435,28 @@
       <c r="E16" s="4"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="55.5" customHeight="1">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="2">
-        <v>23.38</v>
+        <v>21.34</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="65.25" customHeight="1">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>20</v>
@@ -2417,76 +2467,76 @@
       <c r="E18" s="4"/>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="49.5" customHeight="1">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="2">
-        <v>42.59</v>
+        <v>34.58</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="41.25" customHeight="1">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2">
-        <v>931.35</v>
+        <v>779.56</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="114.75" customHeight="1">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2">
-        <v>288.13</v>
+        <v>263.14999999999998</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="15"/>
     </row>
-    <row r="22" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="32.25" customHeight="1">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="2">
-        <v>38.5</v>
+        <v>28.5</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="1:6" ht="147" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="161.25" customHeight="1">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -2497,12 +2547,12 @@
       <c r="E23" s="4"/>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="70.5" customHeight="1">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -2513,60 +2563,60 @@
       <c r="E24" s="4"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="78.75" customHeight="1">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="81" customHeight="1">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="65.25" customHeight="1">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:6" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="100.5" customHeight="1">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
@@ -2577,12 +2627,12 @@
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="98.25" customHeight="1">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
@@ -2593,12 +2643,12 @@
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="54" customHeight="1">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
@@ -2609,12 +2659,12 @@
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="53.25" customHeight="1">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
@@ -2625,12 +2675,12 @@
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
     </row>
-    <row r="32" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="50.25" customHeight="1">
       <c r="A32" s="3">
         <v>29</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
@@ -2641,12 +2691,12 @@
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
     </row>
-    <row r="33" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="54" customHeight="1">
       <c r="A33" s="3">
         <v>30</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
@@ -2657,12 +2707,12 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
     </row>
-    <row r="34" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="51.75" customHeight="1">
       <c r="A34" s="3">
         <v>31</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
@@ -2673,12 +2723,12 @@
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
     </row>
-    <row r="35" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="41.25" customHeight="1">
       <c r="A35" s="3">
         <v>32</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
@@ -2689,12 +2739,12 @@
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="30.75" customHeight="1">
       <c r="A36" s="3">
         <v>33</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -2705,7 +2755,7 @@
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
     </row>
-    <row r="37" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="72" customHeight="1">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -2721,7 +2771,7 @@
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="51" customHeight="1">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -2732,17 +2782,17 @@
         <v>6</v>
       </c>
       <c r="D38" s="2">
-        <v>931.35</v>
+        <v>779.56</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="15"/>
     </row>
-    <row r="39" spans="1:6" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="144" customHeight="1">
       <c r="A39" s="3">
         <v>36</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>11</v>
@@ -2753,44 +2803,44 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
     </row>
-    <row r="40" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="86.25" customHeight="1">
       <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>54</v>
+      <c r="B40" s="30" t="s">
+        <v>91</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2">
-        <v>2</v>
-      </c>
-      <c r="E40" s="4"/>
+        <v>16.72</v>
+      </c>
+      <c r="E40" s="15"/>
       <c r="F40" s="15"/>
     </row>
-    <row r="41" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="33" customHeight="1">
       <c r="A41" s="3">
         <v>38</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="15"/>
     </row>
-    <row r="42" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="34.5" customHeight="1">
       <c r="A42" s="3">
         <v>39</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
@@ -2801,12 +2851,12 @@
       <c r="E42" s="4"/>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="43.5" customHeight="1">
       <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>38</v>
+      <c r="B43" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>10</v>
@@ -2817,297 +2867,299 @@
       <c r="E43" s="4"/>
       <c r="F43" s="15"/>
     </row>
-    <row r="44" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="30.75" customHeight="1">
       <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="17"/>
-    </row>
-    <row r="45" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="B44" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2">
+        <v>16.72</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B47" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A48" s="3">
         <v>1</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="B48" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D48" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F48" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>1</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="2">
-        <v>5.29</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="15"/>
-    </row>
-    <row r="48" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+    <row r="49" spans="1:6" ht="66" customHeight="1">
+      <c r="A49" s="3">
         <v>2</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="2">
-        <v>10.66</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="15"/>
-    </row>
-    <row r="49" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>3</v>
-      </c>
       <c r="B49" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="2">
-        <v>2.5499999999999998</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="15"/>
     </row>
-    <row r="50" spans="1:6" ht="164.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+    <row r="50" spans="1:6" ht="53.25" customHeight="1">
+      <c r="A50" s="3">
+        <v>3</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2">
+        <v>12.66</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="1:6" ht="60" customHeight="1">
+      <c r="A51" s="3">
         <v>4</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B51" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="1:6" ht="160.5" customHeight="1">
+      <c r="A52" s="3">
+        <v>5</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="2">
-        <v>199.51</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="15"/>
-    </row>
-    <row r="51" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>5</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="D52" s="2">
+        <v>210.51</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="1:6" ht="51.75" customHeight="1">
+      <c r="A53" s="3">
+        <v>6</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="2">
-        <v>17.829999999999998</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="15"/>
-    </row>
-    <row r="52" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>6</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="2">
-        <v>408.99</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="15"/>
-    </row>
-    <row r="53" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>7</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D53" s="2">
-        <v>142.62</v>
+        <v>19.829999999999998</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="15"/>
     </row>
-    <row r="54" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>8</v>
+    <row r="54" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A54" s="3">
+        <v>7</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="2">
-        <v>122.69</v>
+        <v>418.99</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="15"/>
     </row>
-    <row r="55" spans="1:6" ht="147.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="27" customHeight="1">
       <c r="A55" s="3">
-        <v>9</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D55" s="2">
-        <v>1</v>
+        <v>142.62</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="15"/>
     </row>
-    <row r="56" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="36" customHeight="1">
       <c r="A56" s="3">
-        <v>10</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D56" s="2">
-        <v>1</v>
+        <v>122.69</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="15"/>
     </row>
-    <row r="57" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+    <row r="57" spans="1:6" ht="164.25" customHeight="1">
+      <c r="A57" s="3">
+        <v>10</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="1:6" ht="72.75" customHeight="1">
+      <c r="A58" s="3">
         <v>11</v>
       </c>
-      <c r="B57" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="2">
-        <v>4</v>
-      </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-    </row>
-    <row r="58" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>12</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>83</v>
+      <c r="B58" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58" s="2">
         <v>1</v>
       </c>
-      <c r="E58" s="15"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="15"/>
     </row>
-    <row r="59" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+    <row r="59" spans="1:6" ht="84" customHeight="1">
+      <c r="A59" s="3">
+        <v>12</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="2">
+        <v>10</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A60" s="3">
         <v>13</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="2">
-        <v>21.5</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="15"/>
-    </row>
-    <row r="60" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>14</v>
-      </c>
       <c r="B60" s="14" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D60" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
     </row>
-    <row r="61" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+    <row r="61" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A61" s="3">
+        <v>14</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="15"/>
+    </row>
+    <row r="62" spans="1:6" ht="36" customHeight="1">
+      <c r="A62" s="3">
         <v>15</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="2">
-        <v>6</v>
-      </c>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-    </row>
-    <row r="62" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>16</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>59</v>
+      <c r="B62" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62" s="2">
         <v>1</v>
@@ -3115,263 +3167,313 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
     </row>
-    <row r="63" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>17</v>
+    <row r="63" spans="1:6" ht="49.5" customHeight="1">
+      <c r="A63" s="3">
+        <v>16</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
     </row>
-    <row r="64" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>18</v>
+    <row r="64" spans="1:6" ht="48.75" customHeight="1">
+      <c r="A64" s="3">
+        <v>17</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
     </row>
-    <row r="65" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>19</v>
+    <row r="65" spans="1:6" ht="48" customHeight="1">
+      <c r="A65" s="3">
+        <v>18</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
     </row>
-    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>20</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>31</v>
+    <row r="66" spans="1:6" ht="46.8">
+      <c r="A66" s="3">
+        <v>19</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D66" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
     </row>
-    <row r="67" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>21</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>32</v>
+    <row r="67" spans="1:6" ht="51.75" customHeight="1">
+      <c r="A67" s="3">
+        <v>20</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67" s="2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
     </row>
-    <row r="68" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+    <row r="68" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A68" s="3">
+        <v>21</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+    </row>
+    <row r="69" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A69" s="3">
         <v>22</v>
       </c>
-      <c r="B68" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="B69" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+    </row>
+    <row r="70" spans="1:6" ht="31.5" customHeight="1">
+      <c r="A70" s="3">
+        <v>23</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2">
+        <v>38.61</v>
+      </c>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+    </row>
+    <row r="71" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A71" s="26">
+        <v>24</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D71" s="2">
         <v>514.47</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="15"/>
-    </row>
-    <row r="69" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
-        <v>23</v>
-      </c>
-      <c r="B69" s="8" t="s">
+      <c r="E71" s="2"/>
+      <c r="F71" s="15"/>
+    </row>
+    <row r="72" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A72" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="17"/>
-    </row>
-    <row r="70" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-      <c r="B70" s="10" t="s">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="17"/>
+    </row>
+    <row r="73" spans="1:6" ht="36" customHeight="1">
+      <c r="A73" s="26">
+        <v>1</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="22" t="s">
+      <c r="C73" s="11"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="42" customHeight="1">
+      <c r="A74" s="26">
+        <v>2</v>
+      </c>
+      <c r="B74" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="22" t="s">
+      <c r="D74" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E74" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F71" s="22" t="s">
+      <c r="F74" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="26">
+    <row r="75" spans="1:6" ht="91.5" customHeight="1">
+      <c r="A75" s="26">
+        <v>3</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="1">
+        <v>20.48</v>
+      </c>
+      <c r="E75" s="23"/>
+      <c r="F75" s="24"/>
+    </row>
+    <row r="76" spans="1:6" ht="106.5" customHeight="1">
+      <c r="A76" s="26">
+        <v>4</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="1">
+        <v>30</v>
+      </c>
+      <c r="E76" s="23"/>
+      <c r="F76" s="24"/>
+    </row>
+    <row r="77" spans="1:6" ht="107.25" customHeight="1">
+      <c r="A77" s="26">
+        <v>5</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1">
+        <v>8.35</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="24"/>
+    </row>
+    <row r="78" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A78" s="26">
+        <v>6</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="1">
+        <v>77.2</v>
+      </c>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+    </row>
+    <row r="79" spans="1:6" ht="218.25" customHeight="1">
+      <c r="A79" s="26">
+        <v>7</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="1">
+        <v>83</v>
+      </c>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+    </row>
+    <row r="80" spans="1:6" ht="68.25" customHeight="1">
+      <c r="A80" s="26">
+        <v>8</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="1">
         <v>1</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="1">
-        <v>20.48</v>
-      </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="24"/>
-    </row>
-    <row r="73" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="26">
-        <v>2</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="1">
-        <v>30</v>
-      </c>
-      <c r="E73" s="23"/>
-      <c r="F73" s="24"/>
-    </row>
-    <row r="74" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="26">
-        <v>3</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="1">
-        <v>8.35</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="24"/>
-    </row>
-    <row r="75" spans="1:6" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="26">
-        <v>4</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="1">
-        <v>77.2</v>
-      </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-    </row>
-    <row r="76" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="26">
-        <v>5</v>
-      </c>
-      <c r="B76" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="1">
-        <v>83</v>
-      </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-    </row>
-    <row r="77" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="26">
-        <v>6</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.6">
+      <c r="A81" s="31">
+        <v>9</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="25"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.6">
+      <c r="A82" s="31">
         <v>10</v>
       </c>
-      <c r="D77" s="1">
-        <v>1</v>
-      </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-    </row>
-    <row r="78" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="26">
-        <v>7</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="25"/>
-    </row>
-    <row r="79" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="26">
-        <v>8</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="25"/>
+      <c r="B82" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3380,24 +3482,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
